--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edelman_nict1\Nictiz\MedMij standaarden - Documenten\General\Deelprojecten\eOverdracht\mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B07B498E660E2A34204B8BD3A8CA1A86B002B93E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="900" windowWidth="27255" windowHeight="11670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="900" windowWidth="27255" windowHeight="11670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -524,32 +518,32 @@
 (.code = definitionCode)</t>
   </si>
   <si>
-    <t xml:space="preserve">.component.UrineContinence.valueCodeableConcept
+    <t>.urinaryStoma (extension, reference to ZIB Stoma)</t>
+  </si>
+  <si>
+    <t>.urineCatheter (extension, reference to MedicalDevice)</t>
+  </si>
+  <si>
+    <t>.incontinenceMaterial (extension, reference to MedicalDevice)</t>
+  </si>
+  <si>
+    <t>.comment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Searched for existing profiles an/or extensions on simplifier and searchengines, but to no avail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.valueCodeableConcept 
 </t>
-  </si>
-  <si>
-    <t>.urinaryStoma (extension, reference to ZIB Stoma)</t>
-  </si>
-  <si>
-    <t>.urineCatheter (extension, reference to MedicalDevice)</t>
-  </si>
-  <si>
-    <t>.incontinenceMaterial (extension, reference to MedicalDevice)</t>
-  </si>
-  <si>
-    <t>.comment</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Searched for existing profiles an/or extensions on simplifier and searchengines, but to no avail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -675,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -729,9 +723,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,7 +758,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -802,7 +799,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +840,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -917,7 +914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,26 +947,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,23 +982,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1194,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1311,7 +1274,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1322,10 +1285,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1523,17 +1488,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:C25" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:C22 C24:C25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1548,11 +1513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1573,7 @@
         <v>163</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>69</v>
@@ -1645,7 +1610,7 @@
         <v>164</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R3" s="4"/>
     </row>
@@ -1682,8 +1647,8 @@
       <c r="O4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>165</v>
+      <c r="P4" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2"/>
@@ -1720,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
@@ -1757,7 +1722,7 @@
         <v>97</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
@@ -1827,7 +1792,7 @@
         <v>109</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="2"/>
@@ -1864,18 +1829,18 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="UrineContinenceCodelist!A1" display="UrineContinenceCodelist" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="O5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="O6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="O7" location="UrineCatheterTypeCodelist!A1" display="UrineCatheterTypeCodelist" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="O4" location="UrineContinenceCodelist!A1" display="UrineContinenceCodelist"/>
+    <hyperlink ref="O5" r:id="rId1"/>
+    <hyperlink ref="O6" r:id="rId2"/>
+    <hyperlink ref="O7" location="UrineCatheterTypeCodelist!A1" display="UrineCatheterTypeCodelist"/>
+    <hyperlink ref="O8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1885,10 +1850,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2042,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2161,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2207,6 +2172,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -2397,36 +2377,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2449,9 +2403,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="900" windowWidth="27255" windowHeight="11670" activeTab="3"/>
+    <workbookView xWindow="870" yWindow="900" windowWidth="27255" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="UrineCatheterTypeCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="UrineContinenceCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="Terms of Use" sheetId="7" r:id="rId7"/>
+    <sheet name="Research" sheetId="8" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="UrineCatheterTypeCodelist" sheetId="5" r:id="rId6"/>
+    <sheet name="UrineContinenceCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="Terms of Use" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="192">
   <si>
     <t>Subject</t>
   </si>
@@ -533,18 +534,78 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Searched for existing profiles an/or extensions on simplifier and searchengines, but to no avail</t>
-  </si>
-  <si>
     <t xml:space="preserve">.valueCodeableConcept 
 </t>
   </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>Nothing relevant</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>bladder function, bladder, urine production</t>
+  </si>
+  <si>
+    <t>valueset reference</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Snapshot of current bladder function. Observation is best fit.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -577,6 +638,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -669,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -726,6 +793,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,6 +821,126 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -758,7 +956,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +997,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +1038,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,6 +1066,1241 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3080" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3084" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3085" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3086" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3087" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3088" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3088"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3089" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3089"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3090" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3090"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3091" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3092" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3093" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3093"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3094" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3095" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3095"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3096" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3096"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3097" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3098" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3099" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3100" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3101" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3102" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1299,10 +2732,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1513,11 +2946,791 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="24"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3076" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3077" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3078" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3079" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3080" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3081" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3082" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3083" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3084" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3085" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3086" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3087" r:id="rId17" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3088" r:id="rId18" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3089" r:id="rId19" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3090" r:id="rId20" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3091" r:id="rId21" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3092" r:id="rId22" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3093" r:id="rId23" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3094" r:id="rId24" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3095" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3096" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3097" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3098" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3099" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3100" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3101" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3102" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1532,11 +3745,12 @@
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="17" max="18" width="51.140625" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1572,14 +3786,20 @@
       <c r="P2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -1609,12 +3829,14 @@
       <c r="P3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="S3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>76</v>
@@ -1648,12 +3870,18 @@
         <v>84</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="51" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>85</v>
@@ -1687,10 +3915,12 @@
       <c r="P5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>92</v>
@@ -1724,10 +3954,12 @@
       <c r="P6" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1757,10 +3989,12 @@
         <v>103</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>104</v>
@@ -1794,10 +4028,12 @@
       <c r="P8" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -1832,7 +4068,11 @@
         <v>168</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1849,7 +4089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G10"/>
   <sheetViews>
@@ -1865,15 +4105,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -2006,7 +4246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H7"/>
   <sheetViews>
@@ -2022,16 +4262,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -2125,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2172,21 +4412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -2377,32 +4602,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2419,4 +4634,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="193">
   <si>
     <t>Subject</t>
   </si>
@@ -522,12 +522,6 @@
     <t>.urinaryStoma (extension, reference to ZIB Stoma)</t>
   </si>
   <si>
-    <t>.urineCatheter (extension, reference to MedicalDevice)</t>
-  </si>
-  <si>
-    <t>.incontinenceMaterial (extension, reference to MedicalDevice)</t>
-  </si>
-  <si>
     <t>.comment</t>
   </si>
   <si>
@@ -599,6 +593,22 @@
   </si>
   <si>
     <t>Snapshot of current bladder function. Observation is best fit.</t>
+  </si>
+  <si>
+    <t>.urineCatheter, where:
+• .urineCatheter (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
+• .urineCatheter.valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-UrineCatheter)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
+  </si>
+  <si>
+    <t>.incontinenceMaterial, where
+• .incontinenceMaterial (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.urineCatheter.valueReference.device.type, where
+• .urineCatheter.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-UrineCatheter)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
+</t>
   </si>
 </sst>
 </file>
@@ -736,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -793,15 +803,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,7 +969,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +1010,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1051,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,10 +2745,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2961,95 +2974,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C2" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="C8" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="C9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="23"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="24"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3729,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3744,8 +3757,9 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="51.140625" customWidth="1"/>
+    <col min="16" max="16" width="108.140625" customWidth="1"/>
+    <col min="17" max="17" width="96.7109375" customWidth="1"/>
+    <col min="18" max="18" width="51.140625" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
@@ -3787,13 +3801,13 @@
         <v>163</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>69</v>
@@ -3832,7 +3846,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -3870,13 +3884,13 @@
         <v>84</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="2"/>
@@ -3920,7 +3934,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>92</v>
@@ -3951,15 +3965,15 @@
       <c r="O6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>166</v>
+      <c r="P6" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="3"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3988,7 +4002,9 @@
       <c r="O7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="16"/>
+      <c r="P7" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="3"/>
@@ -4025,8 +4041,8 @@
       <c r="O8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>167</v>
+      <c r="P8" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -4065,11 +4081,11 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -4105,15 +4121,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -4262,16 +4278,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -4412,6 +4428,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4602,12 +4624,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4618,6 +4634,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4636,23 +4669,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -811,11 +811,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,7 +969,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1051,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,10 +2745,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2963,7 +2963,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3965,7 +3965,7 @@
       <c r="O6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>190</v>
       </c>
       <c r="Q6" s="16"/>
@@ -4002,7 +4002,7 @@
       <c r="O7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="24" t="s">
         <v>192</v>
       </c>
       <c r="Q7" s="16"/>
@@ -4041,7 +4041,7 @@
       <c r="O8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="24" t="s">
         <v>191</v>
       </c>
       <c r="Q8" s="16"/>
@@ -4121,15 +4121,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -4278,16 +4278,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -4428,12 +4428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4624,6 +4618,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4634,23 +4634,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4669,6 +4652,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -16,12 +16,12 @@
     <sheet name="UrineContinenceCodelist" sheetId="6" r:id="rId7"/>
     <sheet name="Terms of Use" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="194">
   <si>
     <t>Subject</t>
   </si>
@@ -595,19 +595,27 @@
     <t>Snapshot of current bladder function. Observation is best fit.</t>
   </si>
   <si>
-    <t>.urineCatheter, where:
-• .urineCatheter (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
-• .urineCatheter.valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-UrineCatheter)
---&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
-  </si>
-  <si>
     <t>.incontinenceMaterial, where
 • .incontinenceMaterial (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
   </si>
   <si>
-    <t xml:space="preserve">.urineCatheter.valueReference.device.type, where
-• .urineCatheter.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-UrineCatheter)
+    <t>In zib-medicaldevice it will be possible to refer to this Observation (the reason for using medical product is this observation, where:
+• extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
+• .valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-UrineCatheter)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;zib-medicalproduct&gt;.valueReference.device.type, where
+• &lt;zib-medicalproduct&gt;.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-UrineCatheter)
 --&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HL7 FHIR R4 relates the resource Observation to DeviceUseStatement as a reason for the usage of this device.
+This relationship is different than in our HCIM's, where the relationship is: Observation is present, and the DeviceUseStatement treats this Observation. 
+i.e.: HCIM = Observation refers to MedicalDeviceStatement
+         FHIR = MedicalDeviceStatement refers to Observation
+FHIR does not allow crossreferences. We decided to go for the FHIR-way and refer to the Observation in MedicalDeviceStatement.
 </t>
   </si>
 </sst>
@@ -969,7 +977,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1018,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1059,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3934,7 +3942,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="280.5" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>92</v>
@@ -3966,14 +3974,16 @@
         <v>97</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4006,8 +4016,6 @@
         <v>192</v>
       </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="3"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
@@ -4042,7 +4050,7 @@
         <v>109</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -4428,6 +4436,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4618,12 +4632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4634,6 +4642,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4652,23 +4677,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -595,28 +595,31 @@
     <t>Snapshot of current bladder function. Observation is best fit.</t>
   </si>
   <si>
-    <t>.incontinenceMaterial, where
-• .incontinenceMaterial (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
-  </si>
-  <si>
-    <t>In zib-medicaldevice it will be possible to refer to this Observation (the reason for using medical product is this observation, where:
-• extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
-• .valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-UrineCatheter)
---&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;zib-medicalproduct&gt;.valueReference.device.type, where
-• &lt;zib-medicalproduct&gt;.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-UrineCatheter)
---&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">HL7 FHIR R4 relates the resource Observation to DeviceUseStatement as a reason for the usage of this device.
-This relationship is different than in our HCIM's, where the relationship is: Observation is present, and the DeviceUseStatement treats this Observation. 
+This relationship is different than in our HCIM's, where the relationship is: Observation is present, and the DeviceUseStatement is used to counter this Observation. 
 i.e.: HCIM = Observation refers to MedicalDeviceStatement
          FHIR = MedicalDeviceStatement refers to Observation
 FHIR does not allow crossreferences. We decided to go for the FHIR-way and refer to the Observation in MedicalDeviceStatement.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No reference in this profile., but in the profile zib-medicalproduct (DeviceUseStatement) 
+&lt;zib-medicalproduct&gt;.valueReference.device.type, where
+• &lt;zib-medicalproduct&gt;.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-UrineCatheter)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
+</t>
+  </si>
+  <si>
+    <t>No reference in this profile., but in the profile zib-medicalproduct (DeviceUseStatement) 
+In zib-medicaldevice it will be possible to refer to this Observation (the reason for using medical product is this observation, where:
+• extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
+• .valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-UrineCatheter)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
+  </si>
+  <si>
+    <t>No reference in this profile., but in the profile zib-medicalproduct (DeviceUseStatement) 
+In zib-medicaldevice it will be possible to refer to this Observation (the reason for using medical product is this observation, where:
+• extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,7 +1021,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1062,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3771,7 @@
     <col min="16" max="16" width="108.140625" customWidth="1"/>
     <col min="17" max="17" width="96.7109375" customWidth="1"/>
     <col min="18" max="18" width="51.140625" customWidth="1"/>
-    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="19" max="19" width="59.85546875" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3942,7 +3945,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>92</v>
@@ -3974,16 +3977,16 @@
         <v>97</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4013,12 +4016,12 @@
         <v>103</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>104</v>
@@ -4050,7 +4053,7 @@
         <v>109</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -4436,12 +4439,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4632,6 +4629,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4642,23 +4645,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4677,6 +4663,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -519,9 +519,6 @@
 (.code = definitionCode)</t>
   </si>
   <si>
-    <t>.urinaryStoma (extension, reference to ZIB Stoma)</t>
-  </si>
-  <si>
     <t>.comment</t>
   </si>
   <si>
@@ -620,6 +617,10 @@
     <t>No reference in this profile., but in the profile zib-medicalproduct (DeviceUseStatement) 
 In zib-medicaldevice it will be possible to refer to this Observation (the reason for using medical product is this observation, where:
 • extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
+  </si>
+  <si>
+    <t>.urinaryStoma (extension, reference to ZIB Stoma)
+• extension zib-BladderFunction-Stoma =  http://nictiz.nl/fhir/StructureDefinition/zib-BladderFunction-Stoma)</t>
   </si>
 </sst>
 </file>
@@ -980,7 +981,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1022,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1063,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,19 +2987,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -3007,64 +3008,64 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3073,7 +3074,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3753,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3812,13 +3813,13 @@
         <v>163</v>
       </c>
       <c r="Q2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>69</v>
@@ -3857,7 +3858,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -3895,13 +3896,13 @@
         <v>84</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="2"/>
@@ -3938,7 +3939,7 @@
         <v>91</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
@@ -3977,12 +3978,12 @@
         <v>97</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T6" s="2"/>
     </row>
@@ -4016,7 +4017,7 @@
         <v>103</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="T7" s="2"/>
@@ -4053,7 +4054,7 @@
         <v>109</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -4092,11 +4093,11 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -4439,6 +4440,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4629,12 +4636,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4645,6 +4646,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4663,23 +4681,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>

--- a/Mappings/BladderFunction - STU3.xlsx
+++ b/Mappings/BladderFunction - STU3.xlsx
@@ -619,8 +619,7 @@
 • extension zib-medicalproduct =  http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)</t>
   </si>
   <si>
-    <t>.urinaryStoma (extension, reference to ZIB Stoma)
-• extension zib-BladderFunction-Stoma =  http://nictiz.nl/fhir/StructureDefinition/zib-BladderFunction-Stoma)</t>
+    <t>.related.target</t>
   </si>
 </sst>
 </file>
@@ -981,7 +980,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1021,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1062,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4440,12 +4439,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4636,6 +4629,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4646,23 +4645,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B314973-BFED-4AE1-8BFD-D3AE1BFE1814}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4681,6 +4663,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E9710-B5BD-42E5-85A7-6C3412C38BE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEED1E24-4566-4A04-A3A6-B4CDF6B5E3E7}">
   <ds:schemaRefs>
